--- a/public/templates/NHWA_Module_2.xlsx
+++ b/public/templates/NHWA_Module_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Final friday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CF9760-CE6D-4739-8E64-9ABC3CE470E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E745F-6FD4-4304-A0EF-C20A36F33B84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JpFKVw5mlSuRG5G19d3ec4KK7wcuXpPTGOnRzVHgPvDtBoF7jJ/pPquVxGlODXQbcOGtndHzlvActlsww6HMSA==" workbookSaltValue="et/ExzzXTlWc3nSZEJLcJA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -4003,6 +4003,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -4052,10 +4056,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -4421,7 +4421,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="10.85546875" style="5" customWidth="1"/>
@@ -4440,7 +4440,7 @@
     <col min="26" max="26" width="15.140625" style="5" hidden="1" customWidth="1"/>
     <col min="27" max="30" width="9.140625" style="5" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="47.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="32" max="33" width="9.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="9.140625" style="5" customWidth="1"/>
     <col min="34" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -4448,20 +4448,20 @@
       <c r="A1" s="43" t="s">
         <v>863</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -4486,20 +4486,20 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>754</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -4669,41 +4669,41 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="53" t="s">
         <v>753</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>766</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>763</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53" t="s">
         <v>767</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="53" t="s">
         <v>764</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52" t="s">
+      <c r="I6" s="53"/>
+      <c r="J6" s="53" t="s">
         <v>768</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="53" t="s">
         <v>765</v>
       </c>
-      <c r="L6" s="52"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="33"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
       <c r="Y6" s="5" t="s">
         <v>110</v>
       </c>
@@ -4730,23 +4730,23 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="52"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="24" t="s">
         <v>11</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>Bahamas</v>
       </c>
     </row>
-    <row r="17" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="22:31" x14ac:dyDescent="0.25">
       <c r="Y17" s="42" t="s">
         <v>90</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>Bahrain</v>
       </c>
     </row>
-    <row r="18" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="22:31" x14ac:dyDescent="0.25">
       <c r="Y18" s="42" t="s">
         <v>159</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>Bangladesh</v>
       </c>
     </row>
-    <row r="19" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="22:31" x14ac:dyDescent="0.25">
       <c r="Y19" s="42" t="s">
         <v>57</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>Barbados</v>
       </c>
     </row>
-    <row r="20" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="22:31" x14ac:dyDescent="0.25">
       <c r="Y20" s="42" t="s">
         <v>114</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>Belarus</v>
       </c>
     </row>
-    <row r="21" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="22:31" x14ac:dyDescent="0.25">
       <c r="Y21" s="42" t="s">
         <v>115</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>Belgium</v>
       </c>
     </row>
-    <row r="22" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="22:31" x14ac:dyDescent="0.25">
       <c r="Y22" s="42" t="s">
         <v>58</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>Belize</v>
       </c>
     </row>
-    <row r="23" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="22:31" x14ac:dyDescent="0.25">
       <c r="Y23" s="42" t="s">
         <v>15</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>Benin</v>
       </c>
     </row>
-    <row r="24" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="22:31" x14ac:dyDescent="0.25">
       <c r="Y24" s="42" t="s">
         <v>533</v>
       </c>
@@ -5396,7 +5396,11 @@
         <v>Bermuda</v>
       </c>
     </row>
-    <row r="25" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V25" s="5">
+        <f t="shared" ref="V25:V43" ca="1" si="2">V26+1</f>
+        <v>2021</v>
+      </c>
       <c r="Y25" s="42" t="s">
         <v>160</v>
       </c>
@@ -5422,7 +5426,11 @@
         <v>Bhutan</v>
       </c>
     </row>
-    <row r="26" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V26" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020</v>
+      </c>
       <c r="Y26" s="42" t="s">
         <v>59</v>
       </c>
@@ -5448,7 +5456,11 @@
         <v>Bolivia (Plurinational State of)</v>
       </c>
     </row>
-    <row r="27" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V27" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2019</v>
+      </c>
       <c r="Y27" s="42" t="s">
         <v>536</v>
       </c>
@@ -5474,7 +5486,11 @@
         <v>Bonaire, Saint Eustatius and Saba</v>
       </c>
     </row>
-    <row r="28" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V28" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2018</v>
+      </c>
       <c r="Y28" s="42" t="s">
         <v>116</v>
       </c>
@@ -5500,7 +5516,11 @@
         <v>Bosnia and Herzegovina</v>
       </c>
     </row>
-    <row r="29" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V29" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2017</v>
+      </c>
       <c r="Y29" s="42" t="s">
         <v>17</v>
       </c>
@@ -5526,7 +5546,11 @@
         <v>Botswana</v>
       </c>
     </row>
-    <row r="30" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V30" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2016</v>
+      </c>
       <c r="Y30" s="42" t="s">
         <v>796</v>
       </c>
@@ -5552,7 +5576,11 @@
         <v>Bouvet Island</v>
       </c>
     </row>
-    <row r="31" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V31" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2015</v>
+      </c>
       <c r="Y31" s="42" t="s">
         <v>60</v>
       </c>
@@ -5578,7 +5606,11 @@
         <v>Brazil</v>
       </c>
     </row>
-    <row r="32" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V32" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2014</v>
+      </c>
       <c r="Y32" s="42" t="s">
         <v>799</v>
       </c>
@@ -5604,7 +5636,11 @@
         <v>British Indian Ocean Territory</v>
       </c>
     </row>
-    <row r="33" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V33" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2013</v>
+      </c>
       <c r="Y33" s="42" t="s">
         <v>539</v>
       </c>
@@ -5630,7 +5666,11 @@
         <v>British Virgin Islands</v>
       </c>
     </row>
-    <row r="34" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V34" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2012</v>
+      </c>
       <c r="Y34" s="42" t="s">
         <v>171</v>
       </c>
@@ -5656,7 +5696,11 @@
         <v>Brunei Darussalam</v>
       </c>
     </row>
-    <row r="35" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V35" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2011</v>
+      </c>
       <c r="Y35" s="42" t="s">
         <v>117</v>
       </c>
@@ -5682,7 +5726,11 @@
         <v>Bulgaria</v>
       </c>
     </row>
-    <row r="36" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V36" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2010</v>
+      </c>
       <c r="Y36" s="42" t="s">
         <v>18</v>
       </c>
@@ -5708,7 +5756,11 @@
         <v>Burkina Faso</v>
       </c>
     </row>
-    <row r="37" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V37" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2009</v>
+      </c>
       <c r="Y37" s="42" t="s">
         <v>19</v>
       </c>
@@ -5734,7 +5786,11 @@
         <v>Burundi</v>
       </c>
     </row>
-    <row r="38" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V38" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2008</v>
+      </c>
       <c r="Y38" s="42" t="s">
         <v>212</v>
       </c>
@@ -5760,7 +5816,11 @@
         <v>Cabo Verde</v>
       </c>
     </row>
-    <row r="39" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V39" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2007</v>
+      </c>
       <c r="Y39" s="42" t="s">
         <v>172</v>
       </c>
@@ -5786,7 +5846,11 @@
         <v>Cambodia</v>
       </c>
     </row>
-    <row r="40" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V40" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2006</v>
+      </c>
       <c r="Y40" s="42" t="s">
         <v>20</v>
       </c>
@@ -5812,7 +5876,11 @@
         <v>Cameroon</v>
       </c>
     </row>
-    <row r="41" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V41" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2005</v>
+      </c>
       <c r="Y41" s="42" t="s">
         <v>61</v>
       </c>
@@ -5838,7 +5906,11 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="42" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V42" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2004</v>
+      </c>
       <c r="Y42" s="42" t="s">
         <v>542</v>
       </c>
@@ -5864,7 +5936,11 @@
         <v>Cayman Islands</v>
       </c>
     </row>
-    <row r="43" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V43" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2003</v>
+      </c>
       <c r="Y43" s="42" t="s">
         <v>21</v>
       </c>
@@ -5890,7 +5966,11 @@
         <v>Central African Republic</v>
       </c>
     </row>
-    <row r="44" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V44" s="5">
+        <f ca="1">V45+1</f>
+        <v>2002</v>
+      </c>
       <c r="Y44" s="42" t="s">
         <v>22</v>
       </c>
@@ -5916,7 +5996,11 @@
         <v>Chad</v>
       </c>
     </row>
-    <row r="45" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="22:31" x14ac:dyDescent="0.25">
+      <c r="V45" s="5">
+        <f ca="1">YEAR(TODAY())-20</f>
+        <v>2001</v>
+      </c>
       <c r="Y45" s="42" t="s">
         <v>62</v>
       </c>
@@ -5942,7 +6026,7 @@
         <v>Chile</v>
       </c>
     </row>
-    <row r="46" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="22:31" x14ac:dyDescent="0.25">
       <c r="Y46" s="42" t="s">
         <v>702</v>
       </c>
@@ -5968,7 +6052,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="47" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="22:31" x14ac:dyDescent="0.25">
       <c r="Y47" s="42" t="s">
         <v>802</v>
       </c>
@@ -5994,7 +6078,7 @@
         <v>China, Hong Kong SAR</v>
       </c>
     </row>
-    <row r="48" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="22:31" x14ac:dyDescent="0.25">
       <c r="Y48" s="42" t="s">
         <v>803</v>
       </c>
@@ -6573,7 +6657,7 @@
         <v>418</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" ref="AC67:AC130" si="2">--ISNUMBER(IFERROR(SEARCH($V$1,Y67,1),""))</f>
+        <f t="shared" ref="AC67:AC130" si="3">--ISNUMBER(IFERROR(SEARCH($V$1,Y67,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD67" s="5">
@@ -6599,7 +6683,7 @@
         <v>372</v>
       </c>
       <c r="AC68" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD68" s="5">
@@ -6625,7 +6709,7 @@
         <v>300</v>
       </c>
       <c r="AC69" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD69" s="5">
@@ -6651,7 +6735,7 @@
         <v>300</v>
       </c>
       <c r="AC70" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD70" s="5">
@@ -6677,7 +6761,7 @@
         <v>300</v>
       </c>
       <c r="AC71" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD71" s="5">
@@ -6703,7 +6787,7 @@
         <v>372</v>
       </c>
       <c r="AC72" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD72" s="5">
@@ -6729,7 +6813,7 @@
         <v>300</v>
       </c>
       <c r="AC73" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD73" s="5">
@@ -6755,7 +6839,7 @@
         <v>202</v>
       </c>
       <c r="AC74" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD74" s="5">
@@ -6781,7 +6865,7 @@
         <v>202</v>
       </c>
       <c r="AC75" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD75" s="5">
@@ -6807,7 +6891,7 @@
         <v>418</v>
       </c>
       <c r="AC76" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD76" s="5">
@@ -6833,7 +6917,7 @@
         <v>202</v>
       </c>
       <c r="AC77" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD77" s="5">
@@ -6859,7 +6943,7 @@
         <v>202</v>
       </c>
       <c r="AC78" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD78" s="5">
@@ -6885,7 +6969,7 @@
         <v>526</v>
       </c>
       <c r="AC79" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD79" s="5">
@@ -6911,7 +6995,7 @@
         <v>526</v>
       </c>
       <c r="AC80" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD80" s="5">
@@ -6937,7 +7021,7 @@
         <v>697</v>
       </c>
       <c r="AC81" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD81" s="5">
@@ -6963,7 +7047,7 @@
         <v>418</v>
       </c>
       <c r="AC82" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD82" s="5">
@@ -6989,7 +7073,7 @@
         <v>418</v>
       </c>
       <c r="AC83" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD83" s="5">
@@ -7015,7 +7099,7 @@
         <v>526</v>
       </c>
       <c r="AC84" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD84" s="5">
@@ -7041,7 +7125,7 @@
         <v>697</v>
       </c>
       <c r="AC85" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD85" s="5">
@@ -7067,7 +7151,7 @@
         <v>526</v>
       </c>
       <c r="AC86" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD86" s="5">
@@ -7093,7 +7177,7 @@
         <v>202</v>
       </c>
       <c r="AC87" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD87" s="5">
@@ -7119,7 +7203,7 @@
         <v>202</v>
       </c>
       <c r="AC88" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD88" s="5">
@@ -7145,7 +7229,7 @@
         <v>418</v>
       </c>
       <c r="AC89" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD89" s="5">
@@ -7171,7 +7255,7 @@
         <v>418</v>
       </c>
       <c r="AC90" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD90" s="5">
@@ -7197,7 +7281,7 @@
         <v>526</v>
       </c>
       <c r="AC91" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD91" s="5">
@@ -7223,7 +7307,7 @@
         <v>526</v>
       </c>
       <c r="AC92" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD92" s="5">
@@ -7249,7 +7333,7 @@
         <v>526</v>
       </c>
       <c r="AC93" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD93" s="5">
@@ -7275,7 +7359,7 @@
         <v>202</v>
       </c>
       <c r="AC94" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD94" s="5">
@@ -7301,7 +7385,7 @@
         <v>526</v>
       </c>
       <c r="AC95" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD95" s="5">
@@ -7327,7 +7411,7 @@
         <v>418</v>
       </c>
       <c r="AC96" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD96" s="5">
@@ -7353,7 +7437,7 @@
         <v>418</v>
       </c>
       <c r="AC97" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD97" s="5">
@@ -7379,7 +7463,7 @@
         <v>300</v>
       </c>
       <c r="AC98" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD98" s="5">
@@ -7405,7 +7489,7 @@
         <v>526</v>
       </c>
       <c r="AC99" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD99" s="5">
@@ -7431,7 +7515,7 @@
         <v>697</v>
       </c>
       <c r="AC100" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD100" s="5">
@@ -7457,7 +7541,7 @@
         <v>300</v>
       </c>
       <c r="AC101" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD101" s="5">
@@ -7483,7 +7567,7 @@
         <v>526</v>
       </c>
       <c r="AC102" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD102" s="5">
@@ -7509,7 +7593,7 @@
         <v>202</v>
       </c>
       <c r="AC103" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD103" s="5">
@@ -7535,7 +7619,7 @@
         <v>202</v>
       </c>
       <c r="AC104" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD104" s="5">
@@ -7561,7 +7645,7 @@
         <v>300</v>
       </c>
       <c r="AC105" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD105" s="5">
@@ -7587,7 +7671,7 @@
         <v>300</v>
       </c>
       <c r="AC106" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD106" s="5">
@@ -7613,7 +7697,7 @@
         <v>526</v>
       </c>
       <c r="AC107" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD107" s="5">
@@ -7639,7 +7723,7 @@
         <v>526</v>
       </c>
       <c r="AC108" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD108" s="5">
@@ -7665,7 +7749,7 @@
         <v>300</v>
       </c>
       <c r="AC109" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD109" s="5">
@@ -7691,7 +7775,7 @@
         <v>418</v>
       </c>
       <c r="AC110" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD110" s="5">
@@ -7717,7 +7801,7 @@
         <v>418</v>
       </c>
       <c r="AC111" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD111" s="5">
@@ -7743,7 +7827,7 @@
         <v>674</v>
       </c>
       <c r="AC112" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD112" s="5">
@@ -7769,7 +7853,7 @@
         <v>674</v>
       </c>
       <c r="AC113" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD113" s="5">
@@ -7795,7 +7879,7 @@
         <v>372</v>
       </c>
       <c r="AC114" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD114" s="5">
@@ -7821,7 +7905,7 @@
         <v>372</v>
       </c>
       <c r="AC115" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD115" s="5">
@@ -7847,7 +7931,7 @@
         <v>418</v>
       </c>
       <c r="AC116" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD116" s="5">
@@ -7873,7 +7957,7 @@
         <v>526</v>
       </c>
       <c r="AC117" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD117" s="5">
@@ -7899,7 +7983,7 @@
         <v>418</v>
       </c>
       <c r="AC118" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD118" s="5">
@@ -7925,7 +8009,7 @@
         <v>418</v>
       </c>
       <c r="AC119" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD119" s="5">
@@ -7951,7 +8035,7 @@
         <v>300</v>
       </c>
       <c r="AC120" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD120" s="5">
@@ -7977,7 +8061,7 @@
         <v>697</v>
       </c>
       <c r="AC121" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD121" s="5">
@@ -8003,7 +8087,7 @@
         <v>526</v>
       </c>
       <c r="AC122" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD122" s="5">
@@ -8029,7 +8113,7 @@
         <v>372</v>
       </c>
       <c r="AC123" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD123" s="5">
@@ -8055,7 +8139,7 @@
         <v>418</v>
       </c>
       <c r="AC124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD124" s="5">
@@ -8081,7 +8165,7 @@
         <v>202</v>
       </c>
       <c r="AC125" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD125" s="5">
@@ -8107,7 +8191,7 @@
         <v>697</v>
       </c>
       <c r="AC126" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD126" s="5">
@@ -8133,7 +8217,7 @@
         <v>372</v>
       </c>
       <c r="AC127" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD127" s="5">
@@ -8159,7 +8243,7 @@
         <v>418</v>
       </c>
       <c r="AC128" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD128" s="5">
@@ -8185,7 +8269,7 @@
         <v>697</v>
       </c>
       <c r="AC129" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD129" s="5">
@@ -8211,7 +8295,7 @@
         <v>418</v>
       </c>
       <c r="AC130" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD130" s="5">
@@ -8237,7 +8321,7 @@
         <v>372</v>
       </c>
       <c r="AC131" s="5">
-        <f t="shared" ref="AC131:AC194" si="3">--ISNUMBER(IFERROR(SEARCH($V$1,Y131,1),""))</f>
+        <f t="shared" ref="AC131:AC194" si="4">--ISNUMBER(IFERROR(SEARCH($V$1,Y131,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD131" s="5">
@@ -8263,7 +8347,7 @@
         <v>202</v>
       </c>
       <c r="AC132" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD132" s="5">
@@ -8289,7 +8373,7 @@
         <v>202</v>
       </c>
       <c r="AC133" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD133" s="5">
@@ -8315,7 +8399,7 @@
         <v>372</v>
       </c>
       <c r="AC134" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD134" s="5">
@@ -8341,7 +8425,7 @@
         <v>526</v>
       </c>
       <c r="AC135" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD135" s="5">
@@ -8367,7 +8451,7 @@
         <v>418</v>
       </c>
       <c r="AC136" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD136" s="5">
@@ -8393,7 +8477,7 @@
         <v>418</v>
       </c>
       <c r="AC137" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD137" s="5">
@@ -8419,7 +8503,7 @@
         <v>202</v>
       </c>
       <c r="AC138" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD138" s="5">
@@ -8445,7 +8529,7 @@
         <v>202</v>
       </c>
       <c r="AC139" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD139" s="5">
@@ -8471,7 +8555,7 @@
         <v>697</v>
       </c>
       <c r="AC140" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD140" s="5">
@@ -8497,7 +8581,7 @@
         <v>674</v>
       </c>
       <c r="AC141" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD141" s="5">
@@ -8523,7 +8607,7 @@
         <v>202</v>
       </c>
       <c r="AC142" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD142" s="5">
@@ -8549,7 +8633,7 @@
         <v>418</v>
       </c>
       <c r="AC143" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD143" s="5">
@@ -8575,7 +8659,7 @@
         <v>697</v>
       </c>
       <c r="AC144" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD144" s="5">
@@ -8601,7 +8685,7 @@
         <v>526</v>
       </c>
       <c r="AC145" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD145" s="5">
@@ -8627,7 +8711,7 @@
         <v>202</v>
       </c>
       <c r="AC146" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD146" s="5">
@@ -8653,7 +8737,7 @@
         <v>202</v>
       </c>
       <c r="AC147" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD147" s="5">
@@ -8679,7 +8763,7 @@
         <v>526</v>
       </c>
       <c r="AC148" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD148" s="5">
@@ -8705,7 +8789,7 @@
         <v>300</v>
       </c>
       <c r="AC149" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD149" s="5">
@@ -8731,7 +8815,7 @@
         <v>697</v>
       </c>
       <c r="AC150" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD150" s="5">
@@ -8757,7 +8841,7 @@
         <v>418</v>
       </c>
       <c r="AC151" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD151" s="5">
@@ -8783,7 +8867,7 @@
         <v>697</v>
       </c>
       <c r="AC152" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD152" s="5">
@@ -8809,7 +8893,7 @@
         <v>418</v>
       </c>
       <c r="AC153" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD153" s="5">
@@ -8835,7 +8919,7 @@
         <v>300</v>
       </c>
       <c r="AC154" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD154" s="5">
@@ -8861,7 +8945,7 @@
         <v>372</v>
       </c>
       <c r="AC155" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD155" s="5">
@@ -8887,7 +8971,7 @@
         <v>202</v>
       </c>
       <c r="AC156" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD156" s="5">
@@ -8913,7 +8997,7 @@
         <v>674</v>
       </c>
       <c r="AC157" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD157" s="5">
@@ -8939,7 +9023,7 @@
         <v>202</v>
       </c>
       <c r="AC158" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD158" s="5">
@@ -8965,7 +9049,7 @@
         <v>697</v>
       </c>
       <c r="AC159" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD159" s="5">
@@ -8991,7 +9075,7 @@
         <v>674</v>
       </c>
       <c r="AC160" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD160" s="5">
@@ -9017,7 +9101,7 @@
         <v>418</v>
       </c>
       <c r="AC161" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD161" s="5">
@@ -9043,7 +9127,7 @@
         <v>526</v>
       </c>
       <c r="AC162" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD162" s="5">
@@ -9069,7 +9153,7 @@
         <v>697</v>
       </c>
       <c r="AC163" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD163" s="5">
@@ -9095,7 +9179,7 @@
         <v>697</v>
       </c>
       <c r="AC164" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD164" s="5">
@@ -9121,7 +9205,7 @@
         <v>300</v>
       </c>
       <c r="AC165" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD165" s="5">
@@ -9147,7 +9231,7 @@
         <v>202</v>
       </c>
       <c r="AC166" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD166" s="5">
@@ -9173,7 +9257,7 @@
         <v>202</v>
       </c>
       <c r="AC167" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD167" s="5">
@@ -9199,7 +9283,7 @@
         <v>697</v>
       </c>
       <c r="AC168" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD168" s="5">
@@ -9225,7 +9309,7 @@
         <v>526</v>
       </c>
       <c r="AC169" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD169" s="5">
@@ -9251,7 +9335,7 @@
         <v>418</v>
       </c>
       <c r="AC170" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD170" s="5">
@@ -9277,7 +9361,7 @@
         <v>697</v>
       </c>
       <c r="AC171" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD171" s="5">
@@ -9303,7 +9387,7 @@
         <v>418</v>
       </c>
       <c r="AC172" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD172" s="5">
@@ -9329,7 +9413,7 @@
         <v>372</v>
       </c>
       <c r="AC173" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD173" s="5">
@@ -9355,7 +9439,7 @@
         <v>372</v>
       </c>
       <c r="AC174" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD174" s="5">
@@ -9381,7 +9465,7 @@
         <v>697</v>
       </c>
       <c r="AC175" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD175" s="5">
@@ -9407,7 +9491,7 @@
         <v>300</v>
       </c>
       <c r="AC176" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD176" s="5">
@@ -9433,7 +9517,7 @@
         <v>697</v>
       </c>
       <c r="AC177" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD177" s="5">
@@ -9459,7 +9543,7 @@
         <v>300</v>
       </c>
       <c r="AC178" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD178" s="5">
@@ -9485,7 +9569,7 @@
         <v>300</v>
       </c>
       <c r="AC179" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD179" s="5">
@@ -9511,7 +9595,7 @@
         <v>697</v>
       </c>
       <c r="AC180" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD180" s="5">
@@ -9537,7 +9621,7 @@
         <v>526</v>
       </c>
       <c r="AC181" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD181" s="5">
@@ -9563,7 +9647,7 @@
         <v>418</v>
       </c>
       <c r="AC182" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD182" s="5">
@@ -9589,7 +9673,7 @@
         <v>418</v>
       </c>
       <c r="AC183" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD183" s="5">
@@ -9615,7 +9699,7 @@
         <v>300</v>
       </c>
       <c r="AC184" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD184" s="5">
@@ -9641,7 +9725,7 @@
         <v>372</v>
       </c>
       <c r="AC185" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD185" s="5">
@@ -9667,7 +9751,7 @@
         <v>697</v>
       </c>
       <c r="AC186" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD186" s="5">
@@ -9693,7 +9777,7 @@
         <v>418</v>
       </c>
       <c r="AC187" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD187" s="5">
@@ -9719,7 +9803,7 @@
         <v>526</v>
       </c>
       <c r="AC188" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD188" s="5">
@@ -9745,7 +9829,7 @@
         <v>418</v>
       </c>
       <c r="AC189" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD189" s="5">
@@ -9771,7 +9855,7 @@
         <v>418</v>
       </c>
       <c r="AC190" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD190" s="5">
@@ -9797,7 +9881,7 @@
         <v>202</v>
       </c>
       <c r="AC191" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD191" s="5">
@@ -9823,7 +9907,7 @@
         <v>526</v>
       </c>
       <c r="AC192" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD192" s="5">
@@ -9849,7 +9933,7 @@
         <v>526</v>
       </c>
       <c r="AC193" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD193" s="5">
@@ -9875,7 +9959,7 @@
         <v>526</v>
       </c>
       <c r="AC194" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD194" s="5">
@@ -9901,7 +9985,7 @@
         <v>526</v>
       </c>
       <c r="AC195" s="5">
-        <f t="shared" ref="AC195:AC258" si="4">--ISNUMBER(IFERROR(SEARCH($V$1,Y195,1),""))</f>
+        <f t="shared" ref="AC195:AC258" si="5">--ISNUMBER(IFERROR(SEARCH($V$1,Y195,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD195" s="5">
@@ -9927,7 +10011,7 @@
         <v>300</v>
       </c>
       <c r="AC196" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD196" s="5">
@@ -9953,7 +10037,7 @@
         <v>300</v>
       </c>
       <c r="AC197" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD197" s="5">
@@ -9979,7 +10063,7 @@
         <v>526</v>
       </c>
       <c r="AC198" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD198" s="5">
@@ -10005,7 +10089,7 @@
         <v>526</v>
       </c>
       <c r="AC199" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD199" s="5">
@@ -10031,7 +10115,7 @@
         <v>300</v>
       </c>
       <c r="AC200" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD200" s="5">
@@ -10057,7 +10141,7 @@
         <v>697</v>
       </c>
       <c r="AC201" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD201" s="5">
@@ -10083,7 +10167,7 @@
         <v>418</v>
       </c>
       <c r="AC202" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD202" s="5">
@@ -10109,7 +10193,7 @@
         <v>202</v>
       </c>
       <c r="AC203" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD203" s="5">
@@ -10135,7 +10219,7 @@
         <v>372</v>
       </c>
       <c r="AC204" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD204" s="5">
@@ -10161,7 +10245,7 @@
         <v>202</v>
       </c>
       <c r="AC205" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD205" s="5">
@@ -10187,7 +10271,7 @@
         <v>418</v>
       </c>
       <c r="AC206" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD206" s="5">
@@ -10213,7 +10297,7 @@
         <v>526</v>
       </c>
       <c r="AC207" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD207" s="5">
@@ -10239,7 +10323,7 @@
         <v>202</v>
       </c>
       <c r="AC208" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD208" s="5">
@@ -10265,7 +10349,7 @@
         <v>202</v>
       </c>
       <c r="AC209" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD209" s="5">
@@ -10291,7 +10375,7 @@
         <v>697</v>
       </c>
       <c r="AC210" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD210" s="5">
@@ -10317,7 +10401,7 @@
         <v>300</v>
       </c>
       <c r="AC211" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD211" s="5">
@@ -10343,7 +10427,7 @@
         <v>418</v>
       </c>
       <c r="AC212" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD212" s="5">
@@ -10369,7 +10453,7 @@
         <v>418</v>
       </c>
       <c r="AC213" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD213" s="5">
@@ -10395,7 +10479,7 @@
         <v>697</v>
       </c>
       <c r="AC214" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD214" s="5">
@@ -10421,7 +10505,7 @@
         <v>372</v>
       </c>
       <c r="AC215" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD215" s="5">
@@ -10447,7 +10531,7 @@
         <v>202</v>
       </c>
       <c r="AC216" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD216" s="5">
@@ -10473,7 +10557,7 @@
         <v>526</v>
       </c>
       <c r="AC217" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD217" s="5">
@@ -10499,7 +10583,7 @@
         <v>202</v>
       </c>
       <c r="AC218" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD218" s="5">
@@ -10525,7 +10609,7 @@
         <v>418</v>
       </c>
       <c r="AC219" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD219" s="5">
@@ -10551,7 +10635,7 @@
         <v>674</v>
       </c>
       <c r="AC220" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD220" s="5">
@@ -10577,7 +10661,7 @@
         <v>372</v>
       </c>
       <c r="AC221" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD221" s="5">
@@ -10603,7 +10687,7 @@
         <v>526</v>
       </c>
       <c r="AC222" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD222" s="5">
@@ -10629,7 +10713,7 @@
         <v>300</v>
       </c>
       <c r="AC223" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD223" s="5">
@@ -10655,7 +10739,7 @@
         <v>526</v>
       </c>
       <c r="AC224" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD224" s="5">
@@ -10681,7 +10765,7 @@
         <v>418</v>
       </c>
       <c r="AC225" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD225" s="5">
@@ -10707,7 +10791,7 @@
         <v>418</v>
       </c>
       <c r="AC226" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD226" s="5">
@@ -10733,7 +10817,7 @@
         <v>372</v>
       </c>
       <c r="AC227" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD227" s="5">
@@ -10759,7 +10843,7 @@
         <v>418</v>
       </c>
       <c r="AC228" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD228" s="5">
@@ -10785,7 +10869,7 @@
         <v>674</v>
       </c>
       <c r="AC229" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD229" s="5">
@@ -10811,7 +10895,7 @@
         <v>526</v>
       </c>
       <c r="AC230" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD230" s="5">
@@ -10837,7 +10921,7 @@
         <v>674</v>
       </c>
       <c r="AC231" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD231" s="5">
@@ -10863,7 +10947,7 @@
         <v>202</v>
       </c>
       <c r="AC232" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD232" s="5">
@@ -10889,7 +10973,7 @@
         <v>697</v>
       </c>
       <c r="AC233" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD233" s="5">
@@ -10915,7 +10999,7 @@
         <v>697</v>
       </c>
       <c r="AC234" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD234" s="5">
@@ -10941,7 +11025,7 @@
         <v>300</v>
       </c>
       <c r="AC235" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD235" s="5">
@@ -10967,7 +11051,7 @@
         <v>372</v>
       </c>
       <c r="AC236" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD236" s="5">
@@ -10993,7 +11077,7 @@
         <v>418</v>
       </c>
       <c r="AC237" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD237" s="5">
@@ -11019,7 +11103,7 @@
         <v>418</v>
       </c>
       <c r="AC238" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD238" s="5">
@@ -11045,7 +11129,7 @@
         <v>300</v>
       </c>
       <c r="AC239" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD239" s="5">
@@ -11071,7 +11155,7 @@
         <v>697</v>
       </c>
       <c r="AC240" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD240" s="5">
@@ -11097,7 +11181,7 @@
         <v>300</v>
       </c>
       <c r="AC241" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD241" s="5">
@@ -11123,7 +11207,7 @@
         <v>526</v>
       </c>
       <c r="AC242" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD242" s="5">
@@ -11149,7 +11233,7 @@
         <v>202</v>
       </c>
       <c r="AC243" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD243" s="5">
@@ -11175,7 +11259,7 @@
         <v>418</v>
       </c>
       <c r="AC244" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD244" s="5">
@@ -11201,7 +11285,7 @@
         <v>372</v>
       </c>
       <c r="AC245" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD245" s="5">
@@ -11227,7 +11311,7 @@
         <v>418</v>
       </c>
       <c r="AC246" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD246" s="5">
@@ -11253,7 +11337,7 @@
         <v>526</v>
       </c>
       <c r="AC247" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD247" s="5">
@@ -11279,7 +11363,7 @@
         <v>526</v>
       </c>
       <c r="AC248" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD248" s="5">
@@ -11305,7 +11389,7 @@
         <v>526</v>
       </c>
       <c r="AC249" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD249" s="5">
@@ -11331,7 +11415,7 @@
         <v>202</v>
       </c>
       <c r="AC250" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD250" s="5">
@@ -11357,7 +11441,7 @@
         <v>526</v>
       </c>
       <c r="AC251" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD251" s="5">
@@ -11383,7 +11467,7 @@
         <v>300</v>
       </c>
       <c r="AC252" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD252" s="5">
@@ -11409,7 +11493,7 @@
         <v>300</v>
       </c>
       <c r="AC253" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD253" s="5">
@@ -11435,7 +11519,7 @@
         <v>418</v>
       </c>
       <c r="AC254" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD254" s="5">
@@ -11461,7 +11545,7 @@
         <v>697</v>
       </c>
       <c r="AC255" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD255" s="5">
@@ -11487,7 +11571,7 @@
         <v>300</v>
       </c>
       <c r="AC256" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD256" s="5">
@@ -11513,7 +11597,7 @@
         <v>697</v>
       </c>
       <c r="AC257" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD257" s="5">
@@ -11539,7 +11623,7 @@
         <v>697</v>
       </c>
       <c r="AC258" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD258" s="5">
@@ -11565,7 +11649,7 @@
         <v>526</v>
       </c>
       <c r="AC259" s="5">
-        <f t="shared" ref="AC259:AC266" si="5">--ISNUMBER(IFERROR(SEARCH($V$1,Y259,1),""))</f>
+        <f t="shared" ref="AC259:AC266" si="6">--ISNUMBER(IFERROR(SEARCH($V$1,Y259,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD259" s="5">
@@ -11591,7 +11675,7 @@
         <v>372</v>
       </c>
       <c r="AC260" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD260" s="5">
@@ -11617,7 +11701,7 @@
         <v>526</v>
       </c>
       <c r="AC261" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD261" s="5">
@@ -11643,7 +11727,7 @@
         <v>372</v>
       </c>
       <c r="AC262" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD262" s="5">
@@ -11669,7 +11753,7 @@
         <v>526</v>
       </c>
       <c r="AC263" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD263" s="5">
@@ -11695,7 +11779,7 @@
         <v>202</v>
       </c>
       <c r="AC264" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD264" s="5">
@@ -11721,7 +11805,7 @@
         <v>202</v>
       </c>
       <c r="AC265" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD265" s="5">
@@ -11747,7 +11831,7 @@
         <v>526</v>
       </c>
       <c r="AC266" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD266" s="5">
@@ -11760,7 +11844,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7BG2UiUH4QySV1cbIsAIzQenamLL4j8+Y4jgIU6rc5Wg+yZOk/8qdOuoOppQNkOq25KcT/71hx0dNhPmW3Vx+g==" saltValue="Md8/0/zDw3es5UaTfGs7Pw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EYp2Cu8EB3M22+c5eoE9JvzwEATXVVpNXp/5fLoMZtzUrzLc5pdT3AP/He8FMYaSZdB2qK4ksHG4iW/tKLCtMw==" saltValue="7P7zpJQBjWu7s1IB5zzemA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="L4 Q8:R15 M8:P14" name="Range1"/>
     <protectedRange sqref="D8:D11 D13:D14 E8:L14" name="Range1_1"/>
@@ -11782,9 +11866,8 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:L14" xr:uid="{E976499E-F417-4AF5-8C43-2FC3834618A6}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4" xr:uid="{296F17B0-3231-4117-AEFB-F0D82934DBDA}">
-      <formula1>YEAR(TODAY())-20</formula1>
-      <formula2>YEAR(TODAY())-1</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4" xr:uid="{296F17B0-3231-4117-AEFB-F0D82934DBDA}">
+      <formula1>$V$26:$V$45</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11813,7 +11896,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="10.85546875" style="5" customWidth="1"/>
@@ -11827,36 +11910,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>754</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="O2" s="23"/>
       <c r="P2" s="12">
         <f>Input!V2</f>
@@ -11920,28 +12003,28 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>753</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>775</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>755</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53" t="s">
         <v>788</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52" t="s">
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
         <v>773</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
       <c r="N6" s="37"/>
@@ -11962,9 +12045,9 @@
       </c>
     </row>
     <row r="7" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="36" t="s">
         <v>11</v>
       </c>
@@ -12258,7 +12341,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="10.85546875" style="5" customWidth="1"/>
@@ -12272,36 +12355,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>754</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="O2" s="45"/>
       <c r="P2" s="5">
         <f>Input!V2</f>
@@ -12363,19 +12446,19 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="59" t="s">
         <v>753</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="55" t="s">
         <v>778</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="55" t="s">
         <v>779</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="55" t="s">
         <v>780</v>
       </c>
       <c r="G6" s="37"/>
@@ -12403,11 +12486,11 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
@@ -12557,40 +12640,40 @@
       <c r="N14" s="38"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="58" t="s">
         <v>752</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="54" t="s">
         <v>907</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="54" t="s">
         <v>905</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="54" t="s">
         <v>909</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="54" t="s">
         <v>771</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="53"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="17">
@@ -12599,20 +12682,20 @@
       <c r="C18" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="50" t="s">
         <v>869</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="50" t="s">
         <v>869</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="50" t="s">
         <v>869</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2QNM0FEM4x26kg74zs96inzllqAfqtfX3NDQNE9JY2L12nuQYG7fYNmXOgB2Y79/oFw7Zt9A+bO1qmxKlxyOWA==" saltValue="QCy75vqsWyVCwoW/iA3UPA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
@@ -12666,7 +12749,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
@@ -12685,15 +12768,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -12703,15 +12786,15 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>762</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -12780,18 +12863,18 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -12802,8 +12885,8 @@
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="21" t="s">
         <v>760</v>
       </c>
@@ -13653,15 +13736,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="str">
+      <c r="A1" s="66" t="str">
         <f>_m5MiTPdlK17</f>
         <v>NHWA Module 2</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -15332,32 +15415,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>1074</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>1073</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="66" t="s">
         <v>1072</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="66" t="s">
         <v>1071</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="66" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
